--- a/Logs.xlsx
+++ b/Logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gingg\Documents\GitHub\xgino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B592E6F-B6EA-49A2-9B6E-A3E8BCC7C9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67490429-FF01-4C5B-8D0C-AD457D6FDC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>Today Hours</t>
+  </si>
+  <si>
+    <t>Create Todo log</t>
+  </si>
+  <si>
+    <t>Creating log that I keep track day hours</t>
   </si>
 </sst>
 </file>
@@ -705,7 +711,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,11 +729,11 @@
       </c>
       <c r="C1" s="12">
         <f ca="1">SUMIFS(TODO!J:J,TODO!B:B,TODAY())</f>
-        <v>0.4583333333333332</v>
+        <v>6.25E-2</v>
       </c>
       <c r="D1" s="15">
         <f ca="1">C1*24</f>
-        <v>10.999999999999996</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -750,7 +756,7 @@
       </c>
       <c r="C4" s="12">
         <f>SUMIFS(TODO!J:J, TODO!B:B, "&gt;="&amp;DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), TODO!B:B, "&lt;="&amp;EOMONTH(DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), 0))</f>
-        <v>0.4583333333333332</v>
+        <v>6.25E-2</v>
       </c>
       <c r="D4" s="12">
         <f>SUMIFS(TODO!K:K, TODO!C:C, "&gt;="&amp;DATE($A1, MONTH(DATEVALUE(D$3 &amp; " 1")), 1), TODO!C:C, "&lt;="&amp;EOMONTH(DATE($A1, MONTH(DATEVALUE(D$3 &amp; " 1")), 1), 0))</f>
@@ -767,7 +773,7 @@
       </c>
       <c r="C5" s="12">
         <f>C4/4</f>
-        <v>0.1145833333333333</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="D5" s="12">
         <f>D4/4</f>
@@ -784,7 +790,7 @@
       </c>
       <c r="C6" s="12">
         <f>C5/4</f>
-        <v>2.8645833333333325E-2</v>
+        <v>3.90625E-3</v>
       </c>
       <c r="D6" s="12">
         <f>D5/4</f>
@@ -801,7 +807,7 @@
       </c>
       <c r="C8" s="12">
         <f>SUMIFS(TODO!J:J, TODO!C:C, "Univercity", TODO!B:B, "&gt;=" &amp; DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), TODO!B:B, "&lt;=" &amp; EOMONTH(DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), 0))</f>
-        <v>2.0833333333333315E-2</v>
+        <v>0</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -812,7 +818,7 @@
       </c>
       <c r="C9" s="12">
         <f>C8/4</f>
-        <v>5.2083333333333287E-3</v>
+        <v>0</v>
       </c>
       <c r="D9" s="12">
         <f>D8/4</f>
@@ -829,7 +835,7 @@
       </c>
       <c r="C10" s="12">
         <f>C9/4</f>
-        <v>1.3020833333333322E-3</v>
+        <v>0</v>
       </c>
       <c r="D10" s="12">
         <f>D9/4</f>
@@ -856,7 +862,7 @@
       </c>
       <c r="C13" s="12">
         <f>SUMIFS(TODO!J:J, TODO!C:C, "E Commerce", TODO!B:B, "&gt;=" &amp; DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), TODO!B:B, "&lt;=" &amp; EOMONTH(DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), 0))</f>
-        <v>4.166666666666663E-2</v>
+        <v>0</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -867,7 +873,7 @@
       </c>
       <c r="C14" s="12">
         <f>C13/4</f>
-        <v>1.0416666666666657E-2</v>
+        <v>0</v>
       </c>
       <c r="D14" s="12">
         <f>D13/4</f>
@@ -884,7 +890,7 @@
       </c>
       <c r="C15" s="12">
         <f>C14/4</f>
-        <v>2.6041666666666644E-3</v>
+        <v>0</v>
       </c>
       <c r="D15" s="12">
         <f>D14/4</f>
@@ -911,7 +917,7 @@
       </c>
       <c r="C18" s="12">
         <f>SUMIFS(TODO!J:J, TODO!C:C, "SaaS", TODO!B:B, "&gt;=" &amp; DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), TODO!B:B, "&lt;=" &amp; EOMONTH(DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), 0))</f>
-        <v>2.0833333333333315E-2</v>
+        <v>0</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -923,7 +929,7 @@
       </c>
       <c r="C19" s="12">
         <f>C18/4</f>
-        <v>5.2083333333333287E-3</v>
+        <v>0</v>
       </c>
       <c r="D19" s="12">
         <f>D18/4</f>
@@ -941,7 +947,7 @@
       </c>
       <c r="C20" s="12">
         <f>C19/4</f>
-        <v>1.3020833333333322E-3</v>
+        <v>0</v>
       </c>
       <c r="D20" s="12">
         <f>D19/4</f>
@@ -970,7 +976,7 @@
       </c>
       <c r="C23" s="12">
         <f>SUMIFS(TODO!J:J, TODO!C:C, "Agency", TODO!B:B, "&gt;=" &amp; DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), TODO!B:B, "&lt;=" &amp; EOMONTH(DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), 0))</f>
-        <v>0.35416666666666663</v>
+        <v>0</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -982,7 +988,7 @@
       </c>
       <c r="C24" s="12">
         <f>C23/4</f>
-        <v>8.8541666666666657E-2</v>
+        <v>0</v>
       </c>
       <c r="D24" s="12">
         <f>D23/4</f>
@@ -1000,7 +1006,7 @@
       </c>
       <c r="C25" s="12">
         <f>C24/4</f>
-        <v>2.2135416666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="D25" s="12">
         <f>D24/4</f>
@@ -1027,7 +1033,7 @@
       </c>
       <c r="C28" s="12">
         <f>SUMIFS(TODO!J:J, TODO!C:C, "Project", TODO!B:B, "&gt;=" &amp; DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), TODO!B:B, "&lt;=" &amp; EOMONTH(DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), 0))</f>
-        <v>2.0833333333333315E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
@@ -1038,7 +1044,7 @@
       </c>
       <c r="C29" s="12">
         <f>C28/4</f>
-        <v>5.2083333333333287E-3</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="D29" s="12">
         <f>D28/4</f>
@@ -1055,7 +1061,7 @@
       </c>
       <c r="C30" s="12">
         <f>C29/4</f>
-        <v>1.3020833333333322E-3</v>
+        <v>3.90625E-3</v>
       </c>
       <c r="D30" s="12">
         <f>D29/4</f>
@@ -1081,7 +1087,7 @@
   <dimension ref="B2:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,17 +1140,26 @@
         <v>45570</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
       </c>
       <c r="H3" s="16">
-        <v>0.375</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I3" s="16">
-        <v>0.39583333333333331</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="J3" s="14">
         <f>I3-H3</f>
-        <v>2.0833333333333315E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M3" s="1"/>
     </row>
@@ -1153,105 +1168,35 @@
         <v>45570</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="16">
-        <v>0.375</v>
-      </c>
-      <c r="I4" s="16">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="J4" s="14">
-        <f>I4-H4</f>
-        <v>2.0833333333333315E-2</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="17">
-        <v>45570</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="16">
-        <v>0.375</v>
-      </c>
-      <c r="I5" s="16">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="J5" s="14">
-        <f>I5-H5</f>
-        <v>2.0833333333333315E-2</v>
-      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="8"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="17">
-        <v>45570</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="16">
-        <v>0.375</v>
-      </c>
-      <c r="I6" s="16">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="J6" s="14">
-        <f>I6-H6</f>
-        <v>2.0833333333333315E-2</v>
-      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="8"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="17">
-        <v>45570</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="16">
-        <v>0.375</v>
-      </c>
-      <c r="I7" s="16">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="J7" s="14">
-        <f>I7-H7</f>
-        <v>0.35416666666666663</v>
-      </c>
+      <c r="B7" s="17"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="17">
-        <v>45570</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="16">
-        <v>0.375</v>
-      </c>
-      <c r="I8" s="16">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="J8" s="14">
-        <f>I8-H8</f>
-        <v>2.0833333333333315E-2</v>
-      </c>
+      <c r="B8" s="17"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">

--- a/Logs.xlsx
+++ b/Logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gingg\Documents\GitHub\xgino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67490429-FF01-4C5B-8D0C-AD457D6FDC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E69ACC7-3125-4712-9209-CB24C784B86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -164,6 +164,57 @@
   </si>
   <si>
     <t>Creating log that I keep track day hours</t>
+  </si>
+  <si>
+    <t>Install 3party software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google Analytics, Hotjar, ads,  </t>
+  </si>
+  <si>
+    <t>Install Contacts</t>
+  </si>
+  <si>
+    <t>Create contact option on home</t>
+  </si>
+  <si>
+    <t>Robots txt and meta tags</t>
+  </si>
+  <si>
+    <t>header html</t>
+  </si>
+  <si>
+    <t>Domain betalen</t>
+  </si>
+  <si>
+    <t>Xgino betalen</t>
+  </si>
+  <si>
+    <t>Zoek pet</t>
+  </si>
+  <si>
+    <t>Vali Foto</t>
+  </si>
+  <si>
+    <t>Upgrade tier fix</t>
+  </si>
+  <si>
+    <t>Fix upgrade tier</t>
+  </si>
+  <si>
+    <t>Vacuum foto logo</t>
+  </si>
+  <si>
+    <t>Fix footer</t>
+  </si>
+  <si>
+    <t>Fix footer area and logo</t>
+  </si>
+  <si>
+    <t>Create mail</t>
+  </si>
+  <si>
+    <t>Fix mail in spam</t>
   </si>
 </sst>
 </file>
@@ -171,22 +222,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ am/pm"/>
-    <numFmt numFmtId="166" formatCode="[$]hh:mm;@" x16r2:formatCode16="[$-en-150,1]hh:mm;@"/>
-    <numFmt numFmtId="168" formatCode="[$]dddd\,\ d\ mmmm\ yyyy;@" x16r2:formatCode16="[$-en-150,1]dddd\,\ d\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="[$]hh:mm;@" x16r2:formatCode16="[$-en-150,1]hh:mm;@"/>
+    <numFmt numFmtId="166" formatCode="[$]dddd\,\ d\ mmmm\ yyyy;@" x16r2:formatCode16="[$-en-150,1]dddd\,\ d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -207,11 +250,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Gadugi"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Gadugi"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Gadugi"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Gadugi"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Gadugi"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -318,58 +384,53 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent3" xfId="1" builtinId="37"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -423,6 +484,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -711,7 +779,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,17 +795,17 @@
       <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="12">
+      <c r="C1" s="7">
         <f ca="1">SUMIFS(TODO!J:J,TODO!B:B,TODAY())</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="D1" s="15">
+        <v>0.1875</v>
+      </c>
+      <c r="D1" s="8">
         <f ca="1">C1*24</f>
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C2" s="12"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -754,15 +822,15 @@
       <c r="B4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="7">
         <f>SUMIFS(TODO!J:J, TODO!B:B, "&gt;="&amp;DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), TODO!B:B, "&lt;="&amp;EOMONTH(DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), 0))</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="D4" s="12">
+        <v>0.35416666666666663</v>
+      </c>
+      <c r="D4" s="7">
         <f>SUMIFS(TODO!K:K, TODO!C:C, "&gt;="&amp;DATE($A1, MONTH(DATEVALUE(D$3 &amp; " 1")), 1), TODO!C:C, "&lt;="&amp;EOMONTH(DATE($A1, MONTH(DATEVALUE(D$3 &amp; " 1")), 1), 0))</f>
         <v>0</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="7">
         <f>SUMIFS(TODO!L:L, TODO!D:D, "&gt;="&amp;DATE($A1, MONTH(DATEVALUE(E$3 &amp; " 1")), 1), TODO!D:D, "&lt;="&amp;EOMONTH(DATE($A1, MONTH(DATEVALUE(E$3 &amp; " 1")), 1), 0))</f>
         <v>0</v>
       </c>
@@ -771,16 +839,16 @@
       <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="12">
-        <f>C4/4</f>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="D5" s="12">
-        <f>D4/4</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="12">
-        <f>E4/4</f>
+      <c r="C5" s="7">
+        <f t="shared" ref="C5:E6" si="0">C4/4</f>
+        <v>8.8541666666666657E-2</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -788,16 +856,16 @@
       <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="12">
-        <f>C5/4</f>
-        <v>3.90625E-3</v>
-      </c>
-      <c r="D6" s="12">
-        <f>D5/4</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="12">
-        <f>E5/4</f>
+      <c r="C6" s="7">
+        <f t="shared" si="0"/>
+        <v>2.2135416666666664E-2</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -805,27 +873,27 @@
       <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="7">
         <f>SUMIFS(TODO!J:J, TODO!C:C, "Univercity", TODO!B:B, "&gt;=" &amp; DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), TODO!B:B, "&lt;=" &amp; EOMONTH(DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), 0))</f>
         <v>0</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="12">
-        <f>C8/4</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="12">
-        <f>D8/4</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="12">
-        <f>E8/4</f>
+      <c r="C9" s="7">
+        <f t="shared" ref="C9:E10" si="1">C8/4</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -833,54 +901,54 @@
       <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="12">
-        <f>C9/4</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="12">
-        <f>D9/4</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="12">
-        <f>E9/4</f>
+      <c r="C10" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="7">
         <f>SUMIFS(TODO!J:J, TODO!C:C, "E Commerce", TODO!B:B, "&gt;=" &amp; DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), TODO!B:B, "&lt;=" &amp; EOMONTH(DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), 0))</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="12">
-        <f>C13/4</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="12">
-        <f>D13/4</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="12">
-        <f>E13/4</f>
+      <c r="C14" s="7">
+        <f t="shared" ref="C14:E15" si="2">C13/4</f>
+        <v>2.6041666666666574E-3</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -888,170 +956,170 @@
       <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="12">
-        <f>C14/4</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="12">
-        <f>D14/4</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="12">
-        <f>E14/4</f>
+      <c r="C15" s="7">
+        <f t="shared" si="2"/>
+        <v>6.5104166666666435E-4</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="7">
         <f>SUMIFS(TODO!J:J, TODO!C:C, "SaaS", TODO!B:B, "&gt;=" &amp; DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), TODO!B:B, "&lt;=" &amp; EOMONTH(DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), 0))</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="J18" s="12"/>
+        <v>0.25</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="12">
-        <f>C18/4</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="12">
-        <f>D18/4</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="12">
-        <f>E18/4</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="12"/>
+      <c r="C19" s="7">
+        <f t="shared" ref="C19:E20" si="3">C18/4</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="12">
-        <f>C19/4</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="12">
-        <f>D19/4</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="12">
-        <f>E19/4</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="12"/>
+      <c r="C20" s="7">
+        <f t="shared" si="3"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="7"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="J22" s="12"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="J22" s="7"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="7">
         <f>SUMIFS(TODO!J:J, TODO!C:C, "Agency", TODO!B:B, "&gt;=" &amp; DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), TODO!B:B, "&lt;=" &amp; EOMONTH(DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), 0))</f>
         <v>0</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="J23" s="12"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="J23" s="7"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="12">
-        <f>C23/4</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="12">
-        <f>D23/4</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="12">
-        <f>E23/4</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="12"/>
+      <c r="C24" s="7">
+        <f t="shared" ref="C24:E25" si="4">C23/4</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="7"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="12">
-        <f>C24/4</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="12">
-        <f>D24/4</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="12">
-        <f>E24/4</f>
+      <c r="C25" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="7">
         <f>SUMIFS(TODO!J:J, TODO!C:C, "Project", TODO!B:B, "&gt;=" &amp; DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), TODO!B:B, "&lt;=" &amp; EOMONTH(DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), 0))</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="12">
-        <f>C28/4</f>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="D29" s="12">
-        <f>D28/4</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="12">
-        <f>E28/4</f>
+      <c r="C29" s="7">
+        <f t="shared" ref="C29:E30" si="5">C28/4</f>
+        <v>1.8229166666666657E-2</v>
+      </c>
+      <c r="D29" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="7">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1059,22 +1127,22 @@
       <c r="B30" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="12">
-        <f>C29/4</f>
-        <v>3.90625E-3</v>
-      </c>
-      <c r="D30" s="12">
-        <f>D29/4</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="12">
-        <f>E29/4</f>
+      <c r="C30" s="7">
+        <f t="shared" si="5"/>
+        <v>4.5572916666666644E-3</v>
+      </c>
+      <c r="D30" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="7">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:D1">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1084,146 +1152,368 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M8"/>
+  <dimension ref="B1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="47.42578125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="26.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="24" style="13" customWidth="1"/>
+    <col min="6" max="6" width="47.42578125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="64.85546875" style="13" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="13"/>
+    <col min="13" max="13" width="10.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C1" s="14"/>
+    </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="17">
+      <c r="B3" s="21">
         <v>45570</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="23">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="23">
         <v>0.72916666666666663</v>
       </c>
-      <c r="J3" s="14">
-        <f>I3-H3</f>
+      <c r="J3" s="16">
+        <f>IF(I3 &lt; H3, I3 + 1, I3) - H3</f>
         <v>6.25E-2</v>
       </c>
-      <c r="M3" s="1"/>
+      <c r="M3" s="24"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="17">
+      <c r="B4" s="21">
         <v>45570</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="E4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="I4" s="23">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="J4" s="16">
+        <f>IF(I4 &lt; H4, I4 + 1, I4) - H4</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="17"/>
-      <c r="C5" s="8"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="B5" s="21">
+        <v>45570</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="23">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="I5" s="23">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="J5" s="16">
+        <f>IF(I5 &lt; H5, I5 + 1, I5) - H5</f>
+        <v>6.2499999999999889E-2</v>
+      </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="17"/>
-      <c r="C6" s="8"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
+      <c r="B6" s="21">
+        <v>45571</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="23">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="I6" s="23">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="J6" s="16">
+        <f>IF(I6 &lt; H6, I6 + 1, I6) - H6</f>
+        <v>2.0833333333333259E-2</v>
+      </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="17"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+      <c r="B7" s="21">
+        <v>45571</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="23">
+        <v>0.59375</v>
+      </c>
+      <c r="I7" s="23">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="J7" s="16">
+        <f>IF(I7 &lt; H7, I7 + 1, I7) - H7</f>
+        <v>1.041666666666663E-2</v>
+      </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
+      <c r="B8" s="21">
+        <v>45571</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="23">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="I8" s="23">
+        <v>0.625</v>
+      </c>
+      <c r="J8" s="16">
+        <f>IF(I8 &lt; H8, I8 + 1, I8) - H8</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="21">
+        <v>45571</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0.625</v>
+      </c>
+      <c r="I9" s="16">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="J9" s="16">
+        <f>IF(I9 &lt; H9, I9 + 1, I9) - H9</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="21">
+        <v>45571</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="I10" s="16">
+        <v>0.65625</v>
+      </c>
+      <c r="J10" s="16">
+        <f>IF(I10 &lt; H10, I10 + 1, I10) - H10</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="21">
+        <v>45571</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I11" s="16">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="J11" s="16">
+        <f>IF(I11 &lt; H11, I11 + 1, I11) - H11</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="21">
+        <v>45571</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="16">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="I12" s="16">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J12" s="16">
+        <f>IF(I12 &lt; H12, I12 + 1, I12) - H12</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="Project">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Project">
       <formula>NOT(ISERROR(SEARCH("Project",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="Agency">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Agency">
       <formula>NOT(ISERROR(SEARCH("Agency",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Univercity">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Univercity">
       <formula>NOT(ISERROR(SEARCH("Univercity",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="E Commerce">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="E Commerce">
       <formula>NOT(ISERROR(SEARCH("E Commerce",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="SAAS">
+    <cfRule type="containsText" dxfId="3" priority="8" operator="containsText" text="SAAS">
       <formula>NOT(ISERROR(SEARCH("SAAS",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Cancel">
+  <conditionalFormatting sqref="G1:G8 G13:G1048576 G10:G11">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Cancel">
       <formula>NOT(ISERROR(SEARCH("Cancel",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Progress">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Progress">
       <formula>NOT(ISERROR(SEARCH("Progress",G1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Completed">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Completed">
       <formula>NOT(ISERROR(SEARCH("Completed",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1231,6 +1521,12 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EC224407-74AE-4B15-A3D3-B785100E8B88}">
+          <x14:formula1>
+            <xm:f>Category!$D$3:$D$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>G3:G8 G10:G11</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6015FAEB-E6D3-49C6-8FAB-F4CAAB2DF346}">
           <x14:formula1>
             <xm:f>Category!$C$3:$C$15</xm:f>
@@ -1243,12 +1539,6 @@
           </x14:formula1>
           <xm:sqref>C3:C1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EC224407-74AE-4B15-A3D3-B785100E8B88}">
-          <x14:formula1>
-            <xm:f>Category!$D$3:$D$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>G3</xm:sqref>
-        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -1257,7 +1547,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4102A4-890F-443F-BA30-89451A522B45}">
-  <dimension ref="A2:I15"/>
+  <dimension ref="B2:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
@@ -1274,167 +1564,117 @@
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="22" t="s">
+      <c r="F2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="22" t="s">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="22" t="s">
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="22" t="s">
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="22" t="s">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
-      <c r="C12" s="3" t="s">
+      <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Logs.xlsx
+++ b/Logs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gingg\Documents\GitHub\xgino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beast\Documents\GitHub\xgino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E69ACC7-3125-4712-9209-CB24C784B86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C48E210-DEF2-4FA5-A318-186E1A768290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="38560" windowHeight="21160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -215,6 +215,27 @@
   </si>
   <si>
     <t>Fix mail in spam</t>
+  </si>
+  <si>
+    <t>Image Update</t>
+  </si>
+  <si>
+    <t>Update MG MP RD and SD Home image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fix PC </t>
+  </si>
+  <si>
+    <t>PC Broke down, find alternative working around</t>
+  </si>
+  <si>
+    <t>fill finance Septerber</t>
+  </si>
+  <si>
+    <t>filling in september financial status and prognose</t>
+  </si>
+  <si>
+    <t>Update Image Steel Zuiger</t>
   </si>
 </sst>
 </file>
@@ -428,7 +449,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent3" xfId="1" builtinId="37"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -797,11 +818,11 @@
       </c>
       <c r="C1" s="7">
         <f ca="1">SUMIFS(TODO!J:J,TODO!B:B,TODAY())</f>
-        <v>0.1875</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="D1" s="8">
         <f ca="1">C1*24</f>
-        <v>4.5</v>
+        <v>6.9999999999999991</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -824,7 +845,7 @@
       </c>
       <c r="C4" s="7">
         <f>SUMIFS(TODO!J:J, TODO!B:B, "&gt;="&amp;DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), TODO!B:B, "&lt;="&amp;EOMONTH(DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), 0))</f>
-        <v>0.35416666666666663</v>
+        <v>0.64583333333333326</v>
       </c>
       <c r="D4" s="7">
         <f>SUMIFS(TODO!K:K, TODO!C:C, "&gt;="&amp;DATE($A1, MONTH(DATEVALUE(D$3 &amp; " 1")), 1), TODO!C:C, "&lt;="&amp;EOMONTH(DATE($A1, MONTH(DATEVALUE(D$3 &amp; " 1")), 1), 0))</f>
@@ -841,7 +862,7 @@
       </c>
       <c r="C5" s="7">
         <f t="shared" ref="C5:E6" si="0">C4/4</f>
-        <v>8.8541666666666657E-2</v>
+        <v>0.16145833333333331</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="0"/>
@@ -858,7 +879,7 @@
       </c>
       <c r="C6" s="7">
         <f t="shared" si="0"/>
-        <v>2.2135416666666664E-2</v>
+        <v>4.0364583333333329E-2</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
@@ -930,7 +951,7 @@
       </c>
       <c r="C13" s="7">
         <f>SUMIFS(TODO!J:J, TODO!C:C, "E Commerce", TODO!B:B, "&gt;=" &amp; DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), TODO!B:B, "&lt;=" &amp; EOMONTH(DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), 0))</f>
-        <v>1.041666666666663E-2</v>
+        <v>0.17708333333333326</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -941,7 +962,7 @@
       </c>
       <c r="C14" s="7">
         <f t="shared" ref="C14:E15" si="2">C13/4</f>
-        <v>2.6041666666666574E-3</v>
+        <v>4.4270833333333315E-2</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" si="2"/>
@@ -958,7 +979,7 @@
       </c>
       <c r="C15" s="7">
         <f t="shared" si="2"/>
-        <v>6.5104166666666435E-4</v>
+        <v>1.1067708333333329E-2</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" si="2"/>
@@ -1152,16 +1173,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M12"/>
+  <dimension ref="B1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="13"/>
-    <col min="2" max="2" width="26.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="25" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="13" customWidth="1"/>
     <col min="5" max="5" width="24" style="13" customWidth="1"/>
@@ -1234,7 +1255,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="J3" s="16">
-        <f>IF(I3 &lt; H3, I3 + 1, I3) - H3</f>
+        <f t="shared" ref="J3:J13" si="0">IF(I3 &lt; H3, I3 + 1, I3) - H3</f>
         <v>6.25E-2</v>
       </c>
       <c r="M3" s="24"/>
@@ -1265,7 +1286,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="J4" s="16">
-        <f>IF(I4 &lt; H4, I4 + 1, I4) - H4</f>
+        <f t="shared" si="0"/>
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
@@ -1295,7 +1316,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="J5" s="16">
-        <f>IF(I5 &lt; H5, I5 + 1, I5) - H5</f>
+        <f t="shared" si="0"/>
         <v>6.2499999999999889E-2</v>
       </c>
     </row>
@@ -1325,7 +1346,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="J6" s="16">
-        <f>IF(I6 &lt; H6, I6 + 1, I6) - H6</f>
+        <f t="shared" si="0"/>
         <v>2.0833333333333259E-2</v>
       </c>
     </row>
@@ -1352,7 +1373,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="J7" s="16">
-        <f>IF(I7 &lt; H7, I7 + 1, I7) - H7</f>
+        <f t="shared" si="0"/>
         <v>1.041666666666663E-2</v>
       </c>
     </row>
@@ -1373,7 +1394,7 @@
         <v>0.625</v>
       </c>
       <c r="J8" s="16">
-        <f>IF(I8 &lt; H8, I8 + 1, I8) - H8</f>
+        <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
     </row>
@@ -1400,7 +1421,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="J9" s="16">
-        <f>IF(I9 &lt; H9, I9 + 1, I9) - H9</f>
+        <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
     </row>
@@ -1427,7 +1448,7 @@
         <v>0.65625</v>
       </c>
       <c r="J10" s="16">
-        <f>IF(I10 &lt; H10, I10 + 1, I10) - H10</f>
+        <f t="shared" si="0"/>
         <v>1.041666666666663E-2</v>
       </c>
     </row>
@@ -1457,7 +1478,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="J11" s="16">
-        <f>IF(I11 &lt; H11, I11 + 1, I11) - H11</f>
+        <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -1484,8 +1505,122 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="J12" s="16">
-        <f>IF(I12 &lt; H12, I12 + 1, I12) - H12</f>
+        <f t="shared" si="0"/>
         <v>4.1666666666666741E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="21">
+        <v>45574</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="16">
+        <v>0.625</v>
+      </c>
+      <c r="J13" s="16">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="21">
+        <v>45574</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="16">
+        <v>0.625</v>
+      </c>
+      <c r="I14" s="16">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="J14" s="16">
+        <f>IF(I14 &lt; H14, I14 + 1, I14) - H14</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="21">
+        <v>45574</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="16">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="I15" s="16">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="J15" s="16">
+        <f>IF(I15 &lt; H15, I15 + 1, I15) - H15</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="21">
+        <v>45574</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="16">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="I16" s="16">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J16" s="16">
+        <f>IF(I16 &lt; H16, I16 + 1, I16) - H16</f>
+        <v>8.3333333333333259E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1506,7 +1641,7 @@
       <formula>NOT(ISERROR(SEARCH("SAAS",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G8 G13:G1048576 G10:G11">
+  <conditionalFormatting sqref="G1:G8 G10:G11 G13:G1048576">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Cancel">
       <formula>NOT(ISERROR(SEARCH("Cancel",G1)))</formula>
     </cfRule>
@@ -1525,13 +1660,13 @@
           <x14:formula1>
             <xm:f>Category!$D$3:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>G3:G8 G10:G11</xm:sqref>
+          <xm:sqref>G3:G8 G10:G11 G13:G16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6015FAEB-E6D3-49C6-8FAB-F4CAAB2DF346}">
           <x14:formula1>
             <xm:f>Category!$C$3:$C$15</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D1048576</xm:sqref>
+          <xm:sqref>D3:D12 D14:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2BD3E35E-35EE-40F2-9753-96AA5F9D5AC3}">
           <x14:formula1>

--- a/Logs.xlsx
+++ b/Logs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beast\Documents\GitHub\xgino\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xGino/GitHub/xgino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C48E210-DEF2-4FA5-A318-186E1A768290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604815FF-7F1D-9644-AF10-490F306C9670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="38560" windowHeight="21160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="15700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="73">
   <si>
     <t>Date</t>
   </si>
@@ -236,6 +236,27 @@
   </si>
   <si>
     <t>Update Image Steel Zuiger</t>
+  </si>
+  <si>
+    <t>Gym</t>
+  </si>
+  <si>
+    <t>Bredius rollers</t>
+  </si>
+  <si>
+    <t>Site overzetten new domain</t>
+  </si>
+  <si>
+    <t>Other domain overzetten</t>
+  </si>
+  <si>
+    <t>Overzetten van domain naar new hosting</t>
+  </si>
+  <si>
+    <t>Do 01 and 02 module 4 appache</t>
+  </si>
+  <si>
+    <t>appache</t>
   </si>
 </sst>
 </file>
@@ -449,7 +470,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent3" xfId="1" builtinId="37"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -803,13 +824,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>2024</v>
       </c>
@@ -818,17 +839,17 @@
       </c>
       <c r="C1" s="7">
         <f ca="1">SUMIFS(TODO!J:J,TODO!B:B,TODAY())</f>
-        <v>0.29166666666666663</v>
+        <v>8.3333333333333259E-2</v>
       </c>
       <c r="D1" s="8">
         <f ca="1">C1*24</f>
-        <v>6.9999999999999991</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.9999999999999982</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>28</v>
       </c>
@@ -839,13 +860,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="7">
         <f>SUMIFS(TODO!J:J, TODO!B:B, "&gt;="&amp;DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), TODO!B:B, "&lt;="&amp;EOMONTH(DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), 0))</f>
-        <v>0.64583333333333326</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D4" s="7">
         <f>SUMIFS(TODO!K:K, TODO!C:C, "&gt;="&amp;DATE($A1, MONTH(DATEVALUE(D$3 &amp; " 1")), 1), TODO!C:C, "&lt;="&amp;EOMONTH(DATE($A1, MONTH(DATEVALUE(D$3 &amp; " 1")), 1), 0))</f>
@@ -856,13 +877,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" ref="C5:E6" si="0">C4/4</f>
-        <v>0.16145833333333331</v>
+        <v>0.24999999999999997</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="0"/>
@@ -873,13 +894,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" si="0"/>
-        <v>4.0364583333333329E-2</v>
+        <v>6.2499999999999993E-2</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
@@ -890,24 +911,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="7">
         <f>SUMIFS(TODO!J:J, TODO!C:C, "Univercity", TODO!B:B, "&gt;=" &amp; DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), TODO!B:B, "&lt;=" &amp; EOMONTH(DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), 0))</f>
-        <v>0</v>
+        <v>8.3333333333333259E-2</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" ref="C9:E10" si="1">C8/4</f>
-        <v>0</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="1"/>
@@ -918,13 +939,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.2083333333333287E-3</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" si="1"/>
@@ -935,17 +956,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -956,7 +977,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>32</v>
       </c>
@@ -973,7 +994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>33</v>
       </c>
@@ -990,17 +1011,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -1012,7 +1033,7 @@
       <c r="E18" s="7"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>32</v>
       </c>
@@ -1030,7 +1051,7 @@
       </c>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>33</v>
       </c>
@@ -1048,18 +1069,18 @@
       </c>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>37</v>
       </c>
@@ -1071,7 +1092,7 @@
       <c r="E23" s="7"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>32</v>
       </c>
@@ -1089,7 +1110,7 @@
       </c>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>33</v>
       </c>
@@ -1106,34 +1127,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="7">
         <f>SUMIFS(TODO!J:J, TODO!C:C, "Project", TODO!B:B, "&gt;=" &amp; DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), TODO!B:B, "&lt;=" &amp; EOMONTH(DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), 0))</f>
-        <v>7.291666666666663E-2</v>
+        <v>0.23958333333333326</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="7">
         <f t="shared" ref="C29:E30" si="5">C28/4</f>
-        <v>1.8229166666666657E-2</v>
+        <v>5.9895833333333315E-2</v>
       </c>
       <c r="D29" s="7">
         <f t="shared" si="5"/>
@@ -1144,13 +1165,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="7">
         <f t="shared" si="5"/>
-        <v>4.5572916666666644E-3</v>
+        <v>1.4973958333333329E-2</v>
       </c>
       <c r="D30" s="7">
         <f t="shared" si="5"/>
@@ -1173,34 +1194,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M16"/>
+  <dimension ref="B1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="13"/>
-    <col min="2" max="2" width="28.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="25" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="13"/>
+    <col min="2" max="2" width="28.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="25" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="13" customWidth="1"/>
     <col min="5" max="5" width="24" style="13" customWidth="1"/>
-    <col min="6" max="6" width="47.42578125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.5" style="15" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="64.85546875" style="13" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="13"/>
-    <col min="13" max="13" width="10.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="13"/>
+    <col min="11" max="11" width="64.83203125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" style="13"/>
+    <col min="13" max="13" width="10.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1640625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C1" s="14"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="17" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
@@ -1232,7 +1253,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="17" x14ac:dyDescent="0.25">
       <c r="B3" s="21">
         <v>45570</v>
       </c>
@@ -1260,7 +1281,7 @@
       </c>
       <c r="M3" s="24"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="17" x14ac:dyDescent="0.25">
       <c r="B4" s="21">
         <v>45570</v>
       </c>
@@ -1290,7 +1311,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="17" x14ac:dyDescent="0.25">
       <c r="B5" s="21">
         <v>45570</v>
       </c>
@@ -1320,7 +1341,7 @@
         <v>6.2499999999999889E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="17" x14ac:dyDescent="0.25">
       <c r="B6" s="21">
         <v>45571</v>
       </c>
@@ -1350,7 +1371,7 @@
         <v>2.0833333333333259E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="17" x14ac:dyDescent="0.25">
       <c r="B7" s="21">
         <v>45571</v>
       </c>
@@ -1377,7 +1398,7 @@
         <v>1.041666666666663E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="17" x14ac:dyDescent="0.25">
       <c r="B8" s="21">
         <v>45571</v>
       </c>
@@ -1398,7 +1419,7 @@
         <v>2.083333333333337E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="17" x14ac:dyDescent="0.25">
       <c r="B9" s="21">
         <v>45571</v>
       </c>
@@ -1425,7 +1446,7 @@
         <v>2.083333333333337E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="17" x14ac:dyDescent="0.25">
       <c r="B10" s="21">
         <v>45571</v>
       </c>
@@ -1452,7 +1473,7 @@
         <v>1.041666666666663E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="17" x14ac:dyDescent="0.25">
       <c r="B11" s="21">
         <v>45571</v>
       </c>
@@ -1482,7 +1503,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="17" x14ac:dyDescent="0.25">
       <c r="B12" s="21">
         <v>45571</v>
       </c>
@@ -1509,7 +1530,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="17" x14ac:dyDescent="0.25">
       <c r="B13" s="21">
         <v>45574</v>
       </c>
@@ -1533,7 +1554,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="17" x14ac:dyDescent="0.25">
       <c r="B14" s="21">
         <v>45574</v>
       </c>
@@ -1563,7 +1584,7 @@
         <v>2.083333333333337E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="17" x14ac:dyDescent="0.25">
       <c r="B15" s="21">
         <v>45574</v>
       </c>
@@ -1593,7 +1614,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="17" x14ac:dyDescent="0.25">
       <c r="B16" s="21">
         <v>45574</v>
       </c>
@@ -1620,6 +1641,111 @@
       </c>
       <c r="J16" s="16">
         <f>IF(I16 &lt; H16, I16 + 1, I16) - H16</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="B17" s="21">
+        <v>45576</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="16">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="I17" s="16">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J17" s="16">
+        <f>IF(I17 &lt; H17, I17 + 1, I17) - H17</f>
+        <v>0.10416666666666674</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="B18" s="21">
+        <v>45576</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="16">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="I18" s="16">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="J18" s="16">
+        <f>IF(I18 &lt; H18, I18 + 1, I18) - H18</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="B19" s="21">
+        <v>45577</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="16">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="I19" s="16">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="J19" s="16">
+        <f>IF(I19 &lt; H19, I19 + 1, I19) - H19</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="B20" s="21">
+        <v>45578</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="16">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="I20" s="16">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="J20" s="16">
+        <f>IF(I20 &lt; H20, I20 + 1, I20) - H20</f>
         <v>8.3333333333333259E-2</v>
       </c>
     </row>
@@ -1660,7 +1786,7 @@
           <x14:formula1>
             <xm:f>Category!$D$3:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>G3:G8 G10:G11 G13:G16</xm:sqref>
+          <xm:sqref>G3:G8 G10:G11 G13:G20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6015FAEB-E6D3-49C6-8FAB-F4CAAB2DF346}">
           <x14:formula1>
@@ -1688,18 +1814,18 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
@@ -1712,7 +1838,7 @@
       <c r="F2" s="9"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1723,7 +1849,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1734,7 +1860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1745,7 +1871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1754,7 +1880,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1763,50 +1889,50 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>

--- a/Logs.xlsx
+++ b/Logs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xGino/GitHub/xgino/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xGino/GitHub/PERSONAL/xgino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604815FF-7F1D-9644-AF10-490F306C9670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E159B5-3DB9-0C48-A034-AB1747FC49E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="15700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="74">
   <si>
     <t>Date</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>appache</t>
+  </si>
+  <si>
+    <t>Check Verkoop prognose Fix mail add promotie</t>
   </si>
 </sst>
 </file>
@@ -839,11 +842,11 @@
       </c>
       <c r="C1" s="7">
         <f ca="1">SUMIFS(TODO!J:J,TODO!B:B,TODAY())</f>
-        <v>8.3333333333333259E-2</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="D1" s="8">
         <f ca="1">C1*24</f>
-        <v>1.9999999999999982</v>
+        <v>1.0000000000000018</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -866,7 +869,7 @@
       </c>
       <c r="C4" s="7">
         <f>SUMIFS(TODO!J:J, TODO!B:B, "&gt;="&amp;DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), TODO!B:B, "&lt;="&amp;EOMONTH(DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), 0))</f>
-        <v>0.99999999999999989</v>
+        <v>1.0416666666666665</v>
       </c>
       <c r="D4" s="7">
         <f>SUMIFS(TODO!K:K, TODO!C:C, "&gt;="&amp;DATE($A1, MONTH(DATEVALUE(D$3 &amp; " 1")), 1), TODO!C:C, "&lt;="&amp;EOMONTH(DATE($A1, MONTH(DATEVALUE(D$3 &amp; " 1")), 1), 0))</f>
@@ -883,7 +886,7 @@
       </c>
       <c r="C5" s="7">
         <f t="shared" ref="C5:E6" si="0">C4/4</f>
-        <v>0.24999999999999997</v>
+        <v>0.26041666666666663</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="0"/>
@@ -900,7 +903,7 @@
       </c>
       <c r="C6" s="7">
         <f t="shared" si="0"/>
-        <v>6.2499999999999993E-2</v>
+        <v>6.5104166666666657E-2</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
@@ -972,7 +975,7 @@
       </c>
       <c r="C13" s="7">
         <f>SUMIFS(TODO!J:J, TODO!C:C, "E Commerce", TODO!B:B, "&gt;=" &amp; DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), TODO!B:B, "&lt;=" &amp; EOMONTH(DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), 0))</f>
-        <v>0.17708333333333326</v>
+        <v>0.21875</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -983,7 +986,7 @@
       </c>
       <c r="C14" s="7">
         <f t="shared" ref="C14:E15" si="2">C13/4</f>
-        <v>4.4270833333333315E-2</v>
+        <v>5.46875E-2</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" si="2"/>
@@ -1000,7 +1003,7 @@
       </c>
       <c r="C15" s="7">
         <f t="shared" si="2"/>
-        <v>1.1067708333333329E-2</v>
+        <v>1.3671875E-2</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" si="2"/>
@@ -1194,10 +1197,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M20"/>
+  <dimension ref="B1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
@@ -1580,7 +1583,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="J14" s="16">
-        <f>IF(I14 &lt; H14, I14 + 1, I14) - H14</f>
+        <f t="shared" ref="J14:J21" si="1">IF(I14 &lt; H14, I14 + 1, I14) - H14</f>
         <v>2.083333333333337E-2</v>
       </c>
     </row>
@@ -1610,7 +1613,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="J15" s="16">
-        <f>IF(I15 &lt; H15, I15 + 1, I15) - H15</f>
+        <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -1640,7 +1643,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="J16" s="16">
-        <f>IF(I16 &lt; H16, I16 + 1, I16) - H16</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333259E-2</v>
       </c>
     </row>
@@ -1664,7 +1667,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="J17" s="16">
-        <f>IF(I17 &lt; H17, I17 + 1, I17) - H17</f>
+        <f t="shared" si="1"/>
         <v>0.10416666666666674</v>
       </c>
     </row>
@@ -1691,7 +1694,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="J18" s="16">
-        <f>IF(I18 &lt; H18, I18 + 1, I18) - H18</f>
+        <f t="shared" si="1"/>
         <v>4.166666666666663E-2</v>
       </c>
     </row>
@@ -1718,7 +1721,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="J19" s="16">
-        <f>IF(I19 &lt; H19, I19 + 1, I19) - H19</f>
+        <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
     </row>
@@ -1745,8 +1748,35 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="J20" s="16">
-        <f>IF(I20 &lt; H20, I20 + 1, I20) - H20</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333259E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="B21" s="21">
+        <v>45580</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="16">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="I21" s="16">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="J21" s="16">
+        <f t="shared" si="1"/>
+        <v>4.1666666666666741E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1786,7 +1816,7 @@
           <x14:formula1>
             <xm:f>Category!$D$3:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>G3:G8 G10:G11 G13:G20</xm:sqref>
+          <xm:sqref>G3:G8 G10:G11 G13:G21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6015FAEB-E6D3-49C6-8FAB-F4CAAB2DF346}">
           <x14:formula1>

--- a/Logs.xlsx
+++ b/Logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xGino/GitHub/PERSONAL/xgino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E159B5-3DB9-0C48-A034-AB1747FC49E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFEA2FE-2150-AB46-B361-B0B64F88F7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="15700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -260,6 +260,48 @@
   </si>
   <si>
     <t>Check Verkoop prognose Fix mail add promotie</t>
+  </si>
+  <si>
+    <t>check voeg speler toe, maar server error 500, fix in code next time</t>
+  </si>
+  <si>
+    <t>Create message</t>
+  </si>
+  <si>
+    <t>Message to mohsen</t>
+  </si>
+  <si>
+    <t>Fix Personal Github MAC</t>
+  </si>
+  <si>
+    <t>Mac Github</t>
+  </si>
+  <si>
+    <t>Hockey Stick zoeken</t>
+  </si>
+  <si>
+    <t>Hockey</t>
+  </si>
+  <si>
+    <t>QR Dive Mail</t>
+  </si>
+  <si>
+    <t>QR dive mail fix end in spam | Only work for gmail not outlook</t>
+  </si>
+  <si>
+    <t>make project planning for xgino data science projects</t>
+  </si>
+  <si>
+    <t>Xgino project</t>
+  </si>
+  <si>
+    <t>Clean up QR dive todo items and prioritize them</t>
+  </si>
+  <si>
+    <t>QR Dive todo</t>
+  </si>
+  <si>
+    <t>FOOD</t>
   </si>
 </sst>
 </file>
@@ -824,7 +866,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -842,11 +884,11 @@
       </c>
       <c r="C1" s="7">
         <f ca="1">SUMIFS(TODO!J:J,TODO!B:B,TODAY())</f>
-        <v>4.1666666666666741E-2</v>
+        <v>0.12499999999999994</v>
       </c>
       <c r="D1" s="8">
         <f ca="1">C1*24</f>
-        <v>1.0000000000000018</v>
+        <v>2.9999999999999987</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -869,7 +911,7 @@
       </c>
       <c r="C4" s="7">
         <f>SUMIFS(TODO!J:J, TODO!B:B, "&gt;="&amp;DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), TODO!B:B, "&lt;="&amp;EOMONTH(DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), 0))</f>
-        <v>1.0416666666666665</v>
+        <v>1.3749999999999998</v>
       </c>
       <c r="D4" s="7">
         <f>SUMIFS(TODO!K:K, TODO!C:C, "&gt;="&amp;DATE($A1, MONTH(DATEVALUE(D$3 &amp; " 1")), 1), TODO!C:C, "&lt;="&amp;EOMONTH(DATE($A1, MONTH(DATEVALUE(D$3 &amp; " 1")), 1), 0))</f>
@@ -886,7 +928,7 @@
       </c>
       <c r="C5" s="7">
         <f t="shared" ref="C5:E6" si="0">C4/4</f>
-        <v>0.26041666666666663</v>
+        <v>0.34374999999999994</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="0"/>
@@ -903,7 +945,7 @@
       </c>
       <c r="C6" s="7">
         <f t="shared" si="0"/>
-        <v>6.5104166666666657E-2</v>
+        <v>8.5937499999999986E-2</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
@@ -920,7 +962,7 @@
       </c>
       <c r="C8" s="7">
         <f>SUMIFS(TODO!J:J, TODO!C:C, "Univercity", TODO!B:B, "&gt;=" &amp; DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), TODO!B:B, "&lt;=" &amp; EOMONTH(DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), 0))</f>
-        <v>8.3333333333333259E-2</v>
+        <v>9.3749999999999889E-2</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -931,7 +973,7 @@
       </c>
       <c r="C9" s="7">
         <f t="shared" ref="C9:E10" si="1">C8/4</f>
-        <v>2.0833333333333315E-2</v>
+        <v>2.3437499999999972E-2</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="1"/>
@@ -948,7 +990,7 @@
       </c>
       <c r="C10" s="7">
         <f t="shared" si="1"/>
-        <v>5.2083333333333287E-3</v>
+        <v>5.8593749999999931E-3</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" si="1"/>
@@ -975,7 +1017,7 @@
       </c>
       <c r="C13" s="7">
         <f>SUMIFS(TODO!J:J, TODO!C:C, "E Commerce", TODO!B:B, "&gt;=" &amp; DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), TODO!B:B, "&lt;=" &amp; EOMONTH(DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), 0))</f>
-        <v>0.21875</v>
+        <v>0.26041666666666663</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -986,7 +1028,7 @@
       </c>
       <c r="C14" s="7">
         <f t="shared" ref="C14:E15" si="2">C13/4</f>
-        <v>5.46875E-2</v>
+        <v>6.5104166666666657E-2</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" si="2"/>
@@ -1003,7 +1045,7 @@
       </c>
       <c r="C15" s="7">
         <f t="shared" si="2"/>
-        <v>1.3671875E-2</v>
+        <v>1.6276041666666664E-2</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" si="2"/>
@@ -1030,7 +1072,7 @@
       </c>
       <c r="C18" s="7">
         <f>SUMIFS(TODO!J:J, TODO!C:C, "SaaS", TODO!B:B, "&gt;=" &amp; DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), TODO!B:B, "&lt;=" &amp; EOMONTH(DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), 0))</f>
-        <v>0.25</v>
+        <v>0.37499999999999994</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -1042,7 +1084,7 @@
       </c>
       <c r="C19" s="7">
         <f t="shared" ref="C19:E20" si="3">C18/4</f>
-        <v>6.25E-2</v>
+        <v>9.3749999999999986E-2</v>
       </c>
       <c r="D19" s="7">
         <f t="shared" si="3"/>
@@ -1060,7 +1102,7 @@
       </c>
       <c r="C20" s="7">
         <f t="shared" si="3"/>
-        <v>1.5625E-2</v>
+        <v>2.3437499999999997E-2</v>
       </c>
       <c r="D20" s="7">
         <f t="shared" si="3"/>
@@ -1146,7 +1188,7 @@
       </c>
       <c r="C28" s="7">
         <f>SUMIFS(TODO!J:J, TODO!C:C, "Project", TODO!B:B, "&gt;=" &amp; DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), TODO!B:B, "&lt;=" &amp; EOMONTH(DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), 0))</f>
-        <v>0.23958333333333326</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -1157,7 +1199,7 @@
       </c>
       <c r="C29" s="7">
         <f t="shared" ref="C29:E30" si="5">C28/4</f>
-        <v>5.9895833333333315E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D29" s="7">
         <f t="shared" si="5"/>
@@ -1174,7 +1216,7 @@
       </c>
       <c r="C30" s="7">
         <f t="shared" si="5"/>
-        <v>1.4973958333333329E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="D30" s="7">
         <f t="shared" si="5"/>
@@ -1197,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M21"/>
+  <dimension ref="B1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
@@ -1583,7 +1625,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="J14" s="16">
-        <f t="shared" ref="J14:J21" si="1">IF(I14 &lt; H14, I14 + 1, I14) - H14</f>
+        <f t="shared" ref="J14:J29" si="1">IF(I14 &lt; H14, I14 + 1, I14) - H14</f>
         <v>2.083333333333337E-2</v>
       </c>
     </row>
@@ -1769,14 +1811,224 @@
         <v>24</v>
       </c>
       <c r="H21" s="16">
-        <v>0.60416666666666663</v>
+        <v>0.5625</v>
       </c>
       <c r="I21" s="16">
         <v>0.64583333333333337</v>
       </c>
       <c r="J21" s="16">
         <f t="shared" si="1"/>
-        <v>4.1666666666666741E-2</v>
+        <v>8.333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="34" x14ac:dyDescent="0.25">
+      <c r="B22" s="21">
+        <v>45580</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="16">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="I22" s="16">
+        <v>0.65625</v>
+      </c>
+      <c r="J22" s="16">
+        <f t="shared" si="1"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="B23" s="21">
+        <v>45580</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="16">
+        <v>0.65625</v>
+      </c>
+      <c r="I23" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J23" s="16">
+        <f t="shared" si="1"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="21">
+        <v>45580</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I24" s="16">
+        <v>0.6875</v>
+      </c>
+      <c r="J24" s="16">
+        <f t="shared" si="1"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="B25" s="21">
+        <v>45580</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="16">
+        <v>0.6875</v>
+      </c>
+      <c r="I25" s="16">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="J25" s="16">
+        <f t="shared" si="1"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="34" x14ac:dyDescent="0.25">
+      <c r="B26" s="21">
+        <v>45580</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="16">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="I26" s="16">
+        <v>0.8125</v>
+      </c>
+      <c r="J26" s="16">
+        <f t="shared" si="1"/>
+        <v>0.10416666666666663</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="B27" s="21">
+        <v>45581</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="16">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I27" s="16">
+        <v>0.46875</v>
+      </c>
+      <c r="J27" s="16">
+        <f t="shared" si="1"/>
+        <v>5.2083333333333315E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="B28" s="21">
+        <v>45581</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="16">
+        <v>0.46875</v>
+      </c>
+      <c r="I28" s="16">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="J28" s="16">
+        <f t="shared" si="1"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="B29" s="21">
+        <v>45581</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="16">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="I29" s="16">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="J29" s="16">
+        <f t="shared" si="1"/>
+        <v>5.2083333333333315E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1816,7 +2068,7 @@
           <x14:formula1>
             <xm:f>Category!$D$3:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>G3:G8 G10:G11 G13:G21</xm:sqref>
+          <xm:sqref>G3:G8 G10:G11 G13:G29</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6015FAEB-E6D3-49C6-8FAB-F4CAAB2DF346}">
           <x14:formula1>

--- a/Logs.xlsx
+++ b/Logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xGino/GitHub/PERSONAL/xgino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFEA2FE-2150-AB46-B361-B0B64F88F7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9199590-930E-7D43-B70B-AEB4E961EF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="15700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="105">
   <si>
     <t>Date</t>
   </si>
@@ -302,6 +302,57 @@
   </si>
   <si>
     <t>FOOD</t>
+  </si>
+  <si>
+    <t>Update small details in QR dive bolar code</t>
+  </si>
+  <si>
+    <t>Small Todo</t>
+  </si>
+  <si>
+    <t>Talk with angry amy</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>Get review for Steelzuiger</t>
+  </si>
+  <si>
+    <t>Check Bol en saass and angency</t>
+  </si>
+  <si>
+    <t>Look for Powersupply, hockey parts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update goldelux footer </t>
+  </si>
+  <si>
+    <t>Dexan Bol check</t>
+  </si>
+  <si>
+    <t>Agenda fill planning</t>
+  </si>
+  <si>
+    <t>Dexan</t>
+  </si>
+  <si>
+    <t>Dexan stofzuiger</t>
+  </si>
+  <si>
+    <t>Checking status</t>
+  </si>
+  <si>
+    <t>Goldelux site</t>
+  </si>
+  <si>
+    <t>planning</t>
+  </si>
+  <si>
+    <t>Bredius site</t>
+  </si>
+  <si>
+    <t>Paint fix hole wall</t>
   </si>
 </sst>
 </file>
@@ -884,11 +935,11 @@
       </c>
       <c r="C1" s="7">
         <f ca="1">SUMIFS(TODO!J:J,TODO!B:B,TODAY())</f>
-        <v>0.12499999999999994</v>
+        <v>0.15624999999999989</v>
       </c>
       <c r="D1" s="8">
         <f ca="1">C1*24</f>
-        <v>2.9999999999999987</v>
+        <v>3.7499999999999973</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -911,7 +962,7 @@
       </c>
       <c r="C4" s="7">
         <f>SUMIFS(TODO!J:J, TODO!B:B, "&gt;="&amp;DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), TODO!B:B, "&lt;="&amp;EOMONTH(DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), 0))</f>
-        <v>1.3749999999999998</v>
+        <v>1.9999999999999996</v>
       </c>
       <c r="D4" s="7">
         <f>SUMIFS(TODO!K:K, TODO!C:C, "&gt;="&amp;DATE($A1, MONTH(DATEVALUE(D$3 &amp; " 1")), 1), TODO!C:C, "&lt;="&amp;EOMONTH(DATE($A1, MONTH(DATEVALUE(D$3 &amp; " 1")), 1), 0))</f>
@@ -928,7 +979,7 @@
       </c>
       <c r="C5" s="7">
         <f t="shared" ref="C5:E6" si="0">C4/4</f>
-        <v>0.34374999999999994</v>
+        <v>0.49999999999999989</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="0"/>
@@ -945,7 +996,7 @@
       </c>
       <c r="C6" s="7">
         <f t="shared" si="0"/>
-        <v>8.5937499999999986E-2</v>
+        <v>0.12499999999999997</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
@@ -962,7 +1013,7 @@
       </c>
       <c r="C8" s="7">
         <f>SUMIFS(TODO!J:J, TODO!C:C, "Univercity", TODO!B:B, "&gt;=" &amp; DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), TODO!B:B, "&lt;=" &amp; EOMONTH(DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), 0))</f>
-        <v>9.3749999999999889E-2</v>
+        <v>0.13541666666666652</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -973,7 +1024,7 @@
       </c>
       <c r="C9" s="7">
         <f t="shared" ref="C9:E10" si="1">C8/4</f>
-        <v>2.3437499999999972E-2</v>
+        <v>3.385416666666663E-2</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="1"/>
@@ -990,7 +1041,7 @@
       </c>
       <c r="C10" s="7">
         <f t="shared" si="1"/>
-        <v>5.8593749999999931E-3</v>
+        <v>8.4635416666666574E-3</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" si="1"/>
@@ -1188,7 +1239,7 @@
       </c>
       <c r="C28" s="7">
         <f>SUMIFS(TODO!J:J, TODO!C:C, "Project", TODO!B:B, "&gt;=" &amp; DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), TODO!B:B, "&lt;=" &amp; EOMONTH(DATE($A1, MONTH(DATEVALUE(C$3 &amp; " 1")), 1), 0))</f>
-        <v>0.33333333333333331</v>
+        <v>0.37500000000000006</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -1199,7 +1250,7 @@
       </c>
       <c r="C29" s="7">
         <f t="shared" ref="C29:E30" si="5">C28/4</f>
-        <v>8.3333333333333329E-2</v>
+        <v>9.3750000000000014E-2</v>
       </c>
       <c r="D29" s="7">
         <f t="shared" si="5"/>
@@ -1216,7 +1267,7 @@
       </c>
       <c r="C30" s="7">
         <f t="shared" si="5"/>
-        <v>2.0833333333333332E-2</v>
+        <v>2.3437500000000003E-2</v>
       </c>
       <c r="D30" s="7">
         <f t="shared" si="5"/>
@@ -1239,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M29"/>
+  <dimension ref="B1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
@@ -1625,7 +1676,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="J14" s="16">
-        <f t="shared" ref="J14:J29" si="1">IF(I14 &lt; H14, I14 + 1, I14) - H14</f>
+        <f t="shared" ref="J14:J40" si="1">IF(I14 &lt; H14, I14 + 1, I14) - H14</f>
         <v>2.083333333333337E-2</v>
       </c>
     </row>
@@ -2029,6 +2080,264 @@
       <c r="J29" s="16">
         <f t="shared" si="1"/>
         <v>5.2083333333333315E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="B30" s="21">
+        <v>45581</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="16">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="I30" s="16">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="J30" s="16">
+        <f t="shared" si="1"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="B31" s="21">
+        <v>45581</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="16">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I31" s="16">
+        <v>0.625</v>
+      </c>
+      <c r="J31" s="16">
+        <f t="shared" si="1"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="B32" s="21">
+        <v>45584</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="16">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I32" s="16">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="J32" s="16">
+        <f t="shared" si="1"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="B33" s="21">
+        <v>45584</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="16">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="I33" s="16">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="J33" s="16">
+        <f t="shared" si="1"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="B34" s="21">
+        <v>45584</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="16">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="I34" s="16">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="J34" s="16">
+        <f t="shared" si="1"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="B35" s="21">
+        <v>45585</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="16">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="I35" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="J35" s="16">
+        <f t="shared" si="1"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="B36" s="21">
+        <v>45585</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="I36" s="16">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="J36" s="16">
+        <f t="shared" si="1"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="B37" s="21">
+        <v>45585</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="16">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="I37" s="16">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="J37" s="16">
+        <f t="shared" si="1"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="B38" s="21">
+        <v>45585</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="16">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="I38" s="16">
+        <v>0.625</v>
+      </c>
+      <c r="J38" s="16">
+        <f t="shared" si="1"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="B39" s="21">
+        <v>45585</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="16">
+        <v>0.625</v>
+      </c>
+      <c r="I39" s="16">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J39" s="16">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666663</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="B40" s="21">
+        <v>45586</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="16">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="I40" s="16">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="J40" s="16">
+        <f t="shared" si="1"/>
+        <v>0.15624999999999989</v>
       </c>
     </row>
   </sheetData>
@@ -2068,7 +2377,7 @@
           <x14:formula1>
             <xm:f>Category!$D$3:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>G3:G8 G10:G11 G13:G29</xm:sqref>
+          <xm:sqref>G3:G8 G10:G11 G13:G40</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6015FAEB-E6D3-49C6-8FAB-F4CAAB2DF346}">
           <x14:formula1>
